--- a/tech_html_demo/res/モック画面設計.xlsx
+++ b/tech_html_demo/res/モック画面設計.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\Downloads\jscore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\git\repository\tech_html_demo\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9153CE51-4D75-4337-98DB-4AE7FD7E3D46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA96C7-5843-4A26-819F-6369DCF778D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="课程概要" sheetId="4" r:id="rId1"/>
-    <sheet name="LOGIN" sheetId="1" r:id="rId2"/>
+    <sheet name="授業内容" sheetId="4" r:id="rId1"/>
+    <sheet name="ログイン" sheetId="1" r:id="rId2"/>
     <sheet name="検索一覧" sheetId="3" r:id="rId3"/>
     <sheet name="新規作成" sheetId="2" r:id="rId4"/>
-    <sheet name="開発流れ" sheetId="5" r:id="rId5"/>
+    <sheet name="開発流れ" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <r>
       <t>学</t>
@@ -126,34 +126,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>式</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>业检</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -984,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,14 +977,6 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1652,15 +1616,17 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1685,62 +1651,67 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1754,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1771,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5DB159-2FDF-4E22-9FE0-03490BFC9F26}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -1788,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05F8022-DBB0-4289-88F8-15EB24141972}">
   <dimension ref="B3:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1799,12 +1770,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFAE259-8B39-405D-A9E6-13021215429C}">
   <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -1835,53 +1806,53 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1889,22 +1860,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1912,52 +1883,52 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
         <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1965,66 +1936,66 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
         <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2032,18 +2003,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L39">
         <v>50</v>
@@ -2054,10 +2025,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" t="s">
         <v>72</v>
-      </c>
-      <c r="M40" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2065,10 +2036,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L41">
         <v>20</v>
@@ -2079,22 +2050,22 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2102,24 +2073,24 @@
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1"/>
       <c r="J46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2127,26 +2098,26 @@
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2154,19 +2125,19 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1"/>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2174,12 +2145,12 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2187,20 +2158,20 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/tech_html_demo/res/モック画面設計.xlsx
+++ b/tech_html_demo/res/モック画面設計.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\git\repository\tech_html_demo\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saisk\git0620\tech_html_demo\tech_html_demo\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA96C7-5843-4A26-819F-6369DCF778D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="授業内容" sheetId="4" r:id="rId1"/>
     <sheet name="ログイン" sheetId="1" r:id="rId2"/>
     <sheet name="検索一覧" sheetId="3" r:id="rId3"/>
     <sheet name="新規作成" sheetId="2" r:id="rId4"/>
-    <sheet name="開発流れ" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="開発流れ" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -955,8 +954,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,7 +1046,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C637A940-97D5-4B40-9C30-FBE990DDC519}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C637A940-97D5-4B40-9C30-FBE990DDC519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,7 +1090,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291077C9-1A31-4A54-8D7D-5375DCCC7F91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291077C9-1A31-4A54-8D7D-5375DCCC7F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1139,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAE5194-7B86-44B2-BA4E-60F8440D08A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAE5194-7B86-44B2-BA4E-60F8440D08A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1183,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E67154-AAD0-4146-AAA0-F503D06B9807}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E67154-AAD0-4146-AAA0-F503D06B9807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1227,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30388678-BB23-4B09-AA6A-94C9C51A54E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30388678-BB23-4B09-AA6A-94C9C51A54E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1276,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B117D7-DF5E-4E97-B192-6E8464F1BA2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B117D7-DF5E-4E97-B192-6E8464F1BA2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1320,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E19347-6010-4262-A40F-175C7ECA9F19}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E19347-6010-4262-A40F-175C7ECA9F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,104 +1611,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B39F87B-2534-4EE2-A0B6-35AFFF5043BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -1722,14 +1721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,14 +1738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5DB159-2FDF-4E22-9FE0-03490BFC9F26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,24 +1755,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05F8022-DBB0-4289-88F8-15EB24141972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B42"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>77</v>
       </c>
@@ -1786,22 +1785,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFAE259-8B39-405D-A9E6-13021215429C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1815,70 +1812,70 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10">
       <c r="D3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10">
       <c r="D4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10">
       <c r="E5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10">
       <c r="E6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10">
       <c r="D7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10">
       <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10">
       <c r="E11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10">
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10">
       <c r="E15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10">
       <c r="E16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10">
       <c r="D17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1892,17 +1889,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10">
       <c r="D20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10">
       <c r="D21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10">
       <c r="D24" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10">
       <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1926,12 +1923,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10">
       <c r="F26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1942,7 +1939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10">
       <c r="D31" t="s">
         <v>38</v>
       </c>
@@ -1950,7 +1947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10">
       <c r="D32" t="s">
         <v>39</v>
       </c>
@@ -1958,7 +1955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13">
       <c r="D33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1966,7 +1963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13">
       <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13">
       <c r="D35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13">
       <c r="D36" s="1" t="s">
         <v>51</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13">
       <c r="D37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1998,7 +1995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13">
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13">
       <c r="L40" t="s">
         <v>71</v>
       </c>
@@ -2031,7 +2028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2048,27 +2045,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13">
       <c r="D42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13">
       <c r="D43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13">
       <c r="D44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13">
       <c r="D45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2080,12 +2077,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13">
       <c r="D47" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13">
       <c r="D48" s="1" t="s">
         <v>61</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2104,7 +2101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10">
       <c r="D51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10">
       <c r="D52" s="1" t="s">
         <v>61</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>8</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10">
       <c r="B55" s="1"/>
       <c r="D55" t="s">
         <v>60</v>
@@ -2140,7 +2137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>9</v>
       </c>
@@ -2148,12 +2145,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10">
       <c r="D58" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>10</v>
       </c>
@@ -2164,12 +2161,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10">
       <c r="D62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10">
       <c r="D63" t="s">
         <v>64</v>
       </c>
